--- a/外部設計.xlsx
+++ b/外部設計.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>検索</t>
     <rPh sb="0" eb="2">
@@ -54,6 +54,16 @@
     <t>災害情報</t>
     <rPh sb="0" eb="4">
       <t>サイガイジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>災害情報</t>
+    <rPh sb="0" eb="2">
+      <t>サイガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -105,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,8 +140,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -154,24 +176,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -181,6 +240,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,13 +536,15 @@
   <dimension ref="A1:AF21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
+      <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -481,7 +554,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="4"/>
@@ -767,19 +840,19 @@
     <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="1" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="H10" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -1135,10 +1208,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C10:G10"/>
     <mergeCell ref="M1:U1"/>
     <mergeCell ref="L2:U20"/>
     <mergeCell ref="W1:AF20"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
